--- a/Lista_Banco_de_Dados.xlsx
+++ b/Lista_Banco_de_Dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Mack2023S1\IMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C96CF1C-31A8-43CD-AA05-C89032F4BC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72FB2E9-664F-4D14-A6EB-45643EEC28B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{A510AF26-AB54-4B45-A16D-B41DC5BB16CC}"/>
+    <workbookView xWindow="21645" yWindow="570" windowWidth="19905" windowHeight="11940" xr2:uid="{A510AF26-AB54-4B45-A16D-B41DC5BB16CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
   <si>
     <t>AUGUSTO HENRIQUE LEME DE OLIVEIRA 17.00268-0</t>
   </si>
@@ -165,6 +165,84 @@
   </si>
   <si>
     <t>T0 Grupo</t>
+  </si>
+  <si>
+    <t>incompleto</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>script não executa, *from, deveriam aqui empregar order by no lugar dos subselects de min/max pois isso só é visto mais adiante</t>
+  </si>
+  <si>
+    <t>deveriam aqui empregar order by no lugar dos subselects de min/max pois isso só é visto mais adiante</t>
+  </si>
+  <si>
+    <t>formato deveria ser .sql (-1)</t>
+  </si>
+  <si>
+    <t>formato deveria ser .sql (-1), e deveriam aqui empregar order by no lugar dos subselects de min/max pois isso só é visto mais adiante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formato deveria ser .sql (-1) </t>
+  </si>
+  <si>
+    <t>formato deveria ser .sql (-1) e order desc</t>
+  </si>
+  <si>
+    <t>formato (.zip) deveria ser .sql (-1), e deveriam aqui empregar order by no lugar dos subselects de min/max pois isso só é visto mais adiante</t>
+  </si>
+  <si>
+    <t>formato deveria ser .sql (-1) e like deveria ser com %</t>
+  </si>
+  <si>
+    <t>nada entregue no arquivo, todas questões iguais</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>Última query para que o null?</t>
+  </si>
+  <si>
+    <t>Última query, prefira year() no lugar de LIKE</t>
+  </si>
+  <si>
+    <t>formato (.zip) deveria ser .sql (-1)</t>
+  </si>
+  <si>
+    <t>Parece haver erro na última query</t>
+  </si>
+  <si>
+    <t>Entregue aqui o LabT15</t>
+  </si>
+  <si>
+    <t>formato deveria ser .sql (-1) e maior parte das respostas encontra-se ilegível e com erro</t>
+  </si>
+  <si>
+    <t>Última query deveria ser a média?</t>
+  </si>
+  <si>
+    <t>incompleto, faltando ao menos a última query</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>incompleto e ilegível</t>
+  </si>
+  <si>
+    <t>formato deveria ser .sql (-1), Última query deveria ser a média?</t>
+  </si>
+  <si>
+    <t>Média</t>
   </si>
 </sst>
 </file>
@@ -174,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +271,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,6 +355,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -587,24 +692,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266B7AEA-14DA-497B-BDAF-DFFDD385B192}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14" style="5" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="19"/>
+    <col min="18" max="18" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>42</v>
@@ -627,16 +742,41 @@
       <c r="H1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -656,8 +796,36 @@
       <c r="H2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I2" s="2">
+        <v>10</v>
+      </c>
+      <c r="K2" s="16">
+        <v>9.5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="18">
+        <v>10</v>
+      </c>
+      <c r="O2" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="2">
+        <f>SUM(C2,E2,G2,I2,K2,M2,O2,Q2)/8</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -674,8 +842,27 @@
       <c r="G3" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2">
+        <v>10</v>
+      </c>
+      <c r="M3" s="19">
+        <v>10</v>
+      </c>
+      <c r="O3" s="19">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>10</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" ref="S3:S23" si="0">SUM(C3,E3,G3,I3,K3,M3,O3,Q3)/8</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -698,8 +885,30 @@
       <c r="H4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="19">
+        <v>10</v>
+      </c>
+      <c r="O4" s="19">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>10</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" si="0"/>
+        <v>9.5625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -719,8 +928,30 @@
       <c r="H5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="19">
+        <v>10</v>
+      </c>
+      <c r="O5" s="19">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>10</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -741,16 +972,36 @@
         <v>10</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="20">
+        <v>10</v>
+      </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="O6" s="20">
+        <v>10</v>
+      </c>
       <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="20">
+        <v>10</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="10">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -772,8 +1023,32 @@
       <c r="H7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="M7" s="19">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="19">
+        <v>9</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>8.5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -795,8 +1070,40 @@
       <c r="H8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I8" s="2">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="19">
+        <v>8.5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="19">
+        <v>9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -819,8 +1126,34 @@
       <c r="H9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="19">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>10</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -842,8 +1175,32 @@
       <c r="H10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="M10" s="19">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="R10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -866,16 +1223,32 @@
       <c r="H11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="20">
+        <v>10</v>
+      </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="20">
+        <v>5</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>2</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -892,8 +1265,17 @@
         <v>32</v>
       </c>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="S12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -916,8 +1298,27 @@
       <c r="H13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="O13" s="19">
+        <v>9</v>
+      </c>
+      <c r="P13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>8.5</v>
+      </c>
+      <c r="R13" t="s">
+        <v>64</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -931,8 +1332,17 @@
       <c r="H14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="S14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -947,8 +1357,17 @@
         <v>10</v>
       </c>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="S15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -971,16 +1390,28 @@
       <c r="H16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="M16" s="20">
+        <v>10</v>
+      </c>
       <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="O16" s="14"/>
       <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="21">
+        <v>9.5</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S16" s="10">
+        <f t="shared" si="0"/>
+        <v>5.8125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1002,8 +1433,24 @@
       <c r="H17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="M17" s="19">
+        <v>10</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="Q17" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="R17" t="s">
+        <v>67</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="0"/>
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1023,8 +1470,30 @@
       <c r="H18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+      <c r="K18" s="2">
+        <v>10</v>
+      </c>
+      <c r="M18" s="19">
+        <v>10</v>
+      </c>
+      <c r="O18" s="19">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="R18" t="s">
+        <v>63</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1043,8 +1512,33 @@
       <c r="H19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I19" s="2">
+        <v>9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="S19" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1064,8 +1558,25 @@
       <c r="H20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I20" s="2">
+        <v>10</v>
+      </c>
+      <c r="K20" s="2">
+        <v>10</v>
+      </c>
+      <c r="M20" s="19">
+        <v>10</v>
+      </c>
+      <c r="O20" s="19">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="S20" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
@@ -1086,16 +1597,22 @@
         <v>32</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="M21" s="14"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+      <c r="O21" s="14"/>
       <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="14"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="10">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1115,8 +1632,26 @@
       <c r="G22" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+      <c r="K22" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="L22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="19">
+        <v>10</v>
+      </c>
+      <c r="O22" s="19">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="S22" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1135,6 +1670,32 @@
       </c>
       <c r="H23" t="s">
         <v>38</v>
+      </c>
+      <c r="I23" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="2">
+        <v>9</v>
+      </c>
+      <c r="L23" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="19">
+        <v>10</v>
+      </c>
+      <c r="O23" s="19">
+        <v>9.5</v>
+      </c>
+      <c r="P23" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" s="3"/>
+      <c r="S23" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3125</v>
       </c>
     </row>
   </sheetData>
@@ -1142,5 +1703,6 @@
     <sortCondition ref="A2:A23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>